--- a/src/test/resources/testData/excel/InwardRemittance.xlsx
+++ b/src/test/resources/testData/excel/InwardRemittance.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dilip\git\InwardRemittance\src\test\resources\testData\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dilip\Music\InwardRemittance\src\test\resources\testData\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="145">
   <si>
     <t>TC ID</t>
   </si>
@@ -425,6 +425,39 @@
   </si>
   <si>
     <t>FCC_CG_IRM_0017_verifySubProductDisposalInstructions</t>
+  </si>
+  <si>
+    <t>MessageOption</t>
+  </si>
+  <si>
+    <t>MasterNo</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>FileName</t>
+  </si>
+  <si>
+    <t>FileName_One</t>
+  </si>
+  <si>
+    <t>FileName_Two</t>
+  </si>
+  <si>
+    <t>FileName_Three</t>
+  </si>
+  <si>
+    <t>103Doc1</t>
+  </si>
+  <si>
+    <t>103Doc2</t>
+  </si>
+  <si>
+    <t>203Doc1</t>
+  </si>
+  <si>
+    <t>203Doc2</t>
   </si>
 </sst>
 </file>
@@ -1257,8 +1290,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMJ433"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1354,12 +1387,24 @@
       <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
+      <c r="C1" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>140</v>
+      </c>
       <c r="I1" s="8"/>
       <c r="J1" s="8"/>
       <c r="K1" s="8"/>
@@ -1384,11 +1429,21 @@
         <v>2</v>
       </c>
       <c r="C2" s="12"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
+      <c r="D2" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="H2" s="14" t="s">
+        <v>144</v>
+      </c>
       <c r="I2" s="14"/>
       <c r="J2" s="14"/>
       <c r="K2" s="14"/>
@@ -1412,12 +1467,24 @@
       <c r="B3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
+      <c r="C3" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>140</v>
+      </c>
       <c r="I3" s="8"/>
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
@@ -1442,11 +1509,21 @@
         <v>2</v>
       </c>
       <c r="C4" s="12"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
+      <c r="D4" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="H4" s="14" t="s">
+        <v>144</v>
+      </c>
       <c r="I4" s="14"/>
       <c r="J4" s="14"/>
       <c r="K4" s="14"/>
@@ -1470,12 +1547,24 @@
       <c r="B5" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
+      <c r="C5" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>140</v>
+      </c>
       <c r="I5" s="8"/>
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
@@ -1518,8 +1607,22 @@
       <c r="B6" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="19"/>
-      <c r="D6" s="20"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="G6" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="H6" s="14" t="s">
+        <v>144</v>
+      </c>
       <c r="K6" s="21"/>
       <c r="R6" s="15"/>
       <c r="S6" s="15"/>
@@ -1550,12 +1653,24 @@
       <c r="B7" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
+      <c r="C7" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>140</v>
+      </c>
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
@@ -1598,8 +1713,22 @@
       <c r="B8" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="19"/>
-      <c r="D8" s="20"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="H8" s="14" t="s">
+        <v>144</v>
+      </c>
       <c r="K8" s="21"/>
       <c r="R8" s="15"/>
       <c r="S8" s="15"/>
@@ -1630,12 +1759,24 @@
       <c r="B9" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
+      <c r="C9" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>140</v>
+      </c>
       <c r="I9" s="8"/>
       <c r="J9" s="8"/>
       <c r="K9" s="8"/>
@@ -1678,8 +1819,22 @@
       <c r="B10" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="19"/>
-      <c r="D10" s="20"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="H10" s="14" t="s">
+        <v>144</v>
+      </c>
       <c r="K10" s="21"/>
       <c r="R10" s="15"/>
       <c r="S10" s="15"/>
@@ -1710,12 +1865,24 @@
       <c r="B11" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
+      <c r="C11" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>140</v>
+      </c>
       <c r="I11" s="8"/>
       <c r="J11" s="8"/>
       <c r="K11" s="22"/>
@@ -2683,12 +2850,22 @@
       <c r="B12" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="19"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="G12" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="H12" s="14" t="s">
+        <v>144</v>
+      </c>
       <c r="I12" s="14"/>
       <c r="J12" s="14"/>
       <c r="K12" s="11"/>
@@ -3656,12 +3833,24 @@
       <c r="B13" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="23"/>
+      <c r="C13" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>140</v>
+      </c>
       <c r="I13" s="23"/>
       <c r="J13" s="23"/>
       <c r="K13" s="16"/>
@@ -4600,11 +4789,21 @@
         <v>2</v>
       </c>
       <c r="C14" s="12"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
+      <c r="D14" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="F14" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="G14" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="H14" s="14" t="s">
+        <v>144</v>
+      </c>
       <c r="I14" s="14"/>
       <c r="J14" s="14"/>
       <c r="K14" s="21"/>
@@ -5542,12 +5741,24 @@
       <c r="B15" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="15"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15"/>
+      <c r="C15" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>140</v>
+      </c>
       <c r="I15" s="15"/>
       <c r="J15" s="15"/>
       <c r="K15" s="15"/>
@@ -5624,12 +5835,22 @@
       <c r="B16" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C16" s="19"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="20"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="F16" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="G16" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="H16" s="14" t="s">
+        <v>144</v>
+      </c>
       <c r="I16" s="20"/>
       <c r="J16" s="20"/>
       <c r="K16" s="20"/>
@@ -5706,8 +5927,24 @@
       <c r="B17" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="G17" s="23"/>
-      <c r="H17" s="23"/>
+      <c r="C17" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>140</v>
+      </c>
       <c r="I17" s="23"/>
       <c r="J17" s="23"/>
     </row>
@@ -5718,8 +5955,22 @@
       <c r="B18" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C18" s="19"/>
-      <c r="H18" s="20"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="F18" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="G18" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="H18" s="14" t="s">
+        <v>144</v>
+      </c>
       <c r="L18" s="21"/>
       <c r="T18" s="21"/>
       <c r="U18" s="21"/>
@@ -5736,12 +5987,24 @@
       <c r="B19" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
+      <c r="C19" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>140</v>
+      </c>
       <c r="I19" s="8"/>
       <c r="J19" s="8"/>
       <c r="K19" s="8"/>
@@ -5816,8 +6079,22 @@
       <c r="B20" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C20" s="19"/>
-      <c r="H20" s="20"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="F20" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="G20" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="H20" s="14" t="s">
+        <v>144</v>
+      </c>
       <c r="I20" s="21"/>
       <c r="J20" s="21"/>
       <c r="L20" s="21"/>
@@ -6049,12 +6326,24 @@
       <c r="D23" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="8"/>
+      <c r="E23" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="H23" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="I23" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="J23" s="8" t="s">
+        <v>140</v>
+      </c>
       <c r="K23" s="8"/>
       <c r="L23" s="8"/>
       <c r="M23" s="8"/>
@@ -6134,10 +6423,22 @@
       <c r="D24" s="80" t="s">
         <v>101</v>
       </c>
-      <c r="E24" s="19"/>
-      <c r="F24" s="21"/>
-      <c r="I24" s="20"/>
-      <c r="J24" s="21"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="G24" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="H24" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="I24" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="J24" s="14" t="s">
+        <v>144</v>
+      </c>
       <c r="K24" s="21"/>
       <c r="M24" s="21"/>
       <c r="Q24" s="15"/>
@@ -6209,12 +6510,24 @@
       <c r="D25" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="8"/>
+      <c r="E25" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="G25" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="H25" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="I25" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="J25" s="8" t="s">
+        <v>140</v>
+      </c>
       <c r="K25" s="8"/>
       <c r="L25" s="8"/>
       <c r="M25" s="8"/>
@@ -6242,12 +6555,22 @@
       <c r="D26" s="80" t="s">
         <v>101</v>
       </c>
-      <c r="E26" s="19"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="14"/>
-      <c r="H26" s="14"/>
-      <c r="I26" s="13"/>
-      <c r="J26" s="14"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="G26" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="H26" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="I26" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="J26" s="14" t="s">
+        <v>144</v>
+      </c>
       <c r="K26" s="14"/>
       <c r="L26" s="14"/>
       <c r="M26" s="14"/>
@@ -6272,12 +6595,24 @@
       <c r="C27" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="8"/>
-      <c r="I27" s="8"/>
+      <c r="D27" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="G27" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="H27" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="I27" s="8" t="s">
+        <v>140</v>
+      </c>
       <c r="J27" s="8"/>
       <c r="K27" s="8"/>
       <c r="L27" s="8"/>
@@ -6303,12 +6638,22 @@
       <c r="C28" s="80" t="s">
         <v>99</v>
       </c>
-      <c r="D28" s="17"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="14"/>
-      <c r="H28" s="13"/>
-      <c r="I28" s="13"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="F28" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="G28" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="H28" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="I28" s="14" t="s">
+        <v>144</v>
+      </c>
       <c r="J28" s="14"/>
       <c r="K28" s="14"/>
       <c r="L28" s="8"/>
@@ -6334,12 +6679,24 @@
       <c r="C29" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="D29" s="26"/>
-      <c r="E29" s="26"/>
-      <c r="F29" s="26"/>
-      <c r="G29" s="26"/>
-      <c r="H29" s="26"/>
-      <c r="I29" s="26"/>
+      <c r="D29" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="G29" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="H29" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="I29" s="8" t="s">
+        <v>140</v>
+      </c>
       <c r="J29" s="26"/>
       <c r="K29" s="26"/>
       <c r="L29" s="26"/>
@@ -6361,12 +6718,22 @@
       <c r="C30" s="80" t="s">
         <v>116</v>
       </c>
-      <c r="D30" s="29"/>
-      <c r="E30" s="28"/>
-      <c r="F30" s="30"/>
-      <c r="G30" s="30"/>
-      <c r="H30" s="31"/>
-      <c r="I30" s="31"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="F30" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="G30" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="H30" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="I30" s="14" t="s">
+        <v>144</v>
+      </c>
       <c r="J30" s="30"/>
       <c r="K30" s="30"/>
       <c r="L30" s="31"/>
@@ -6418,12 +6785,24 @@
       <c r="J31" s="26" t="s">
         <v>132</v>
       </c>
-      <c r="K31" s="26"/>
-      <c r="L31" s="26"/>
-      <c r="M31" s="25"/>
-      <c r="N31" s="25"/>
-      <c r="O31" s="25"/>
-      <c r="P31" s="25"/>
+      <c r="K31" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="L31" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="M31" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="N31" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="O31" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="P31" s="8" t="s">
+        <v>140</v>
+      </c>
       <c r="Q31" s="25"/>
       <c r="R31" s="25"/>
       <c r="S31" s="25"/>
@@ -6459,12 +6838,22 @@
       <c r="J32" s="80" t="s">
         <v>127</v>
       </c>
-      <c r="K32" s="30"/>
-      <c r="L32" s="31"/>
-      <c r="M32" s="31"/>
-      <c r="N32" s="25"/>
-      <c r="O32" s="31"/>
-      <c r="P32" s="25"/>
+      <c r="K32" s="12"/>
+      <c r="L32" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="M32" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="N32" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="O32" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="P32" s="14" t="s">
+        <v>144</v>
+      </c>
       <c r="Q32" s="25"/>
       <c r="R32" s="25"/>
       <c r="S32" s="25"/>

--- a/src/test/resources/testData/excel/InwardRemittance.xlsx
+++ b/src/test/resources/testData/excel/InwardRemittance.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="154">
   <si>
     <t>TC ID</t>
   </si>
@@ -458,6 +458,33 @@
   </si>
   <si>
     <t>203Doc2</t>
+  </si>
+  <si>
+    <t>FCC_CGIRM003MessageToBankEditTransactionsValidation</t>
+  </si>
+  <si>
+    <t>FCC_CGIRM004MessageToBankReviewTransactionsReturn</t>
+  </si>
+  <si>
+    <t>FCC_CG_IRM_006_PendingIRNotSubmittedRemitttingBankValidation</t>
+  </si>
+  <si>
+    <t>FCC_CG_IRM_007_PendingIRReleasedBankApprovedBankValidation</t>
+  </si>
+  <si>
+    <t>FCC_CG_IRM_0012_RealisationOfExportBills_Intiation</t>
+  </si>
+  <si>
+    <t>FCC_CG_IRM_0013_ReceiptsAgainstExport</t>
+  </si>
+  <si>
+    <t>FCC_CG_IRM_0014_AdvanceReceiptsAgainstExport</t>
+  </si>
+  <si>
+    <t>Details</t>
+  </si>
+  <si>
+    <t>Testing</t>
   </si>
 </sst>
 </file>
@@ -1290,8 +1317,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMJ433"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+    <sheetView tabSelected="1" topLeftCell="C31" workbookViewId="0">
+      <selection activeCell="I46" sqref="I46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6868,16 +6895,36 @@
       <c r="AC32" s="32"/>
     </row>
     <row r="33" spans="1:1024" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="7"/>
-      <c r="B33" s="15"/>
-      <c r="C33" s="15"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="15"/>
-      <c r="F33" s="15"/>
-      <c r="G33" s="15"/>
-      <c r="H33" s="15"/>
-      <c r="I33" s="15"/>
-      <c r="J33" s="15"/>
+      <c r="A33" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="F33" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="G33" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="H33" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="I33" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="J33" s="8" t="s">
+        <v>102</v>
+      </c>
       <c r="K33" s="15"/>
       <c r="L33" s="15"/>
       <c r="M33" s="15"/>
@@ -6908,16 +6955,34 @@
       <c r="AL33" s="8"/>
     </row>
     <row r="34" spans="1:1024" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="7"/>
-      <c r="B34" s="20"/>
-      <c r="C34" s="19"/>
-      <c r="D34" s="20"/>
-      <c r="E34" s="20"/>
-      <c r="F34" s="20"/>
-      <c r="G34" s="20"/>
-      <c r="H34" s="20"/>
-      <c r="I34" s="20"/>
-      <c r="J34" s="20"/>
+      <c r="A34" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C34" s="12"/>
+      <c r="D34" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="E34" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="F34" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="G34" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="H34" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="I34" s="80" t="s">
+        <v>99</v>
+      </c>
+      <c r="J34" s="80" t="s">
+        <v>101</v>
+      </c>
       <c r="K34" s="20"/>
       <c r="L34" s="20"/>
       <c r="M34" s="20"/>
@@ -6934,14 +6999,36 @@
       <c r="X34" s="20"/>
     </row>
     <row r="35" spans="1:1024" x14ac:dyDescent="0.25">
-      <c r="C35" s="16"/>
-      <c r="D35" s="16"/>
-      <c r="E35" s="16"/>
-      <c r="F35" s="16"/>
-      <c r="G35" s="8"/>
-      <c r="H35" s="16"/>
-      <c r="I35" s="23"/>
-      <c r="J35" s="16"/>
+      <c r="A35" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="F35" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="G35" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="H35" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="I35" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="J35" s="8" t="s">
+        <v>102</v>
+      </c>
       <c r="K35" s="23"/>
       <c r="L35" s="16"/>
       <c r="M35" s="16"/>
@@ -7957,14 +8044,34 @@
       <c r="AMI35" s="11"/>
     </row>
     <row r="36" spans="1:1024" x14ac:dyDescent="0.25">
+      <c r="A36" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="C36" s="12"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="14"/>
-      <c r="G36" s="14"/>
-      <c r="H36" s="14"/>
-      <c r="I36" s="14"/>
-      <c r="J36" s="14"/>
+      <c r="D36" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="E36" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="F36" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="G36" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="H36" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="I36" s="80" t="s">
+        <v>99</v>
+      </c>
+      <c r="J36" s="80" t="s">
+        <v>101</v>
+      </c>
       <c r="K36" s="14"/>
       <c r="L36" s="21"/>
       <c r="M36" s="21"/>
@@ -8980,14 +9087,36 @@
       <c r="AMI36" s="11"/>
     </row>
     <row r="37" spans="1:1024" x14ac:dyDescent="0.25">
-      <c r="C37" s="8"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="8"/>
-      <c r="F37" s="8"/>
-      <c r="G37" s="8"/>
-      <c r="H37" s="8"/>
-      <c r="I37" s="8"/>
-      <c r="J37" s="8"/>
+      <c r="A37" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="E37" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="F37" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="G37" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="H37" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="I37" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="J37" s="8" t="s">
+        <v>102</v>
+      </c>
       <c r="K37" s="8"/>
       <c r="L37" s="8"/>
       <c r="M37" s="8"/>
@@ -9989,14 +10118,34 @@
       <c r="AMI37" s="11"/>
     </row>
     <row r="38" spans="1:1024" x14ac:dyDescent="0.25">
-      <c r="C38" s="19"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="14"/>
-      <c r="F38" s="14"/>
-      <c r="G38" s="14"/>
-      <c r="H38" s="14"/>
-      <c r="I38" s="14"/>
-      <c r="J38" s="14"/>
+      <c r="A38" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C38" s="12"/>
+      <c r="D38" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="E38" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="F38" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="G38" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="H38" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="I38" s="80" t="s">
+        <v>99</v>
+      </c>
+      <c r="J38" s="80" t="s">
+        <v>101</v>
+      </c>
       <c r="K38" s="21"/>
       <c r="L38" s="14"/>
       <c r="M38" s="14"/>
@@ -10999,14 +11148,36 @@
       <c r="AMI38" s="11"/>
     </row>
     <row r="39" spans="1:1024" x14ac:dyDescent="0.25">
-      <c r="C39" s="8"/>
-      <c r="D39" s="8"/>
-      <c r="E39" s="8"/>
-      <c r="F39" s="8"/>
-      <c r="G39" s="8"/>
-      <c r="H39" s="8"/>
-      <c r="I39" s="8"/>
-      <c r="J39" s="8"/>
+      <c r="A39" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="F39" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="G39" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="H39" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="I39" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="J39" s="8" t="s">
+        <v>102</v>
+      </c>
       <c r="K39" s="8"/>
       <c r="L39" s="8"/>
       <c r="M39" s="8"/>
@@ -12010,14 +12181,34 @@
       <c r="AMI39" s="11"/>
     </row>
     <row r="40" spans="1:1024" x14ac:dyDescent="0.25">
-      <c r="C40" s="19"/>
-      <c r="D40" s="14"/>
-      <c r="E40" s="14"/>
-      <c r="F40" s="14"/>
-      <c r="G40" s="14"/>
-      <c r="H40" s="14"/>
-      <c r="I40" s="14"/>
-      <c r="J40" s="14"/>
+      <c r="A40" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C40" s="12"/>
+      <c r="D40" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="E40" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="F40" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="G40" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="H40" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="I40" s="80" t="s">
+        <v>99</v>
+      </c>
+      <c r="J40" s="80" t="s">
+        <v>101</v>
+      </c>
       <c r="K40" s="21"/>
       <c r="L40" s="14"/>
       <c r="M40" s="21"/>
@@ -13022,15 +13213,33 @@
       <c r="AMI40" s="11"/>
     </row>
     <row r="41" spans="1:1024" x14ac:dyDescent="0.25">
-      <c r="A41" s="16"/>
-      <c r="B41" s="34"/>
-      <c r="C41" s="35"/>
-      <c r="D41" s="35"/>
-      <c r="E41" s="35"/>
-      <c r="F41" s="35"/>
-      <c r="G41" s="35"/>
-      <c r="H41" s="16"/>
-      <c r="I41" s="8"/>
+      <c r="A41" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="D41" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="E41" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="F41" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="G41" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="H41" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="I41" s="8" t="s">
+        <v>152</v>
+      </c>
       <c r="J41" s="8"/>
       <c r="K41" s="8"/>
       <c r="L41" s="8"/>
@@ -13047,15 +13256,31 @@
       <c r="AMJ41" s="7"/>
     </row>
     <row r="42" spans="1:1024" x14ac:dyDescent="0.25">
-      <c r="A42" s="20"/>
-      <c r="B42" s="34"/>
-      <c r="C42" s="36"/>
-      <c r="D42" s="37"/>
-      <c r="E42" s="38"/>
-      <c r="F42" s="39"/>
-      <c r="G42" s="39"/>
-      <c r="H42" s="14"/>
-      <c r="I42" s="14"/>
+      <c r="A42" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C42" s="12"/>
+      <c r="D42" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="E42" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="F42" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="G42" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="H42" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="I42" s="14" t="s">
+        <v>153</v>
+      </c>
       <c r="J42" s="14"/>
       <c r="K42" s="14"/>
       <c r="L42" s="14"/>
@@ -13072,13 +13297,33 @@
       <c r="AMJ42" s="7"/>
     </row>
     <row r="43" spans="1:1024" x14ac:dyDescent="0.25">
-      <c r="C43" s="8"/>
-      <c r="D43" s="8"/>
-      <c r="E43" s="8"/>
-      <c r="F43" s="8"/>
-      <c r="G43" s="8"/>
-      <c r="H43" s="8"/>
-      <c r="I43" s="8"/>
+      <c r="A43" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="D43" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="E43" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="F43" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="G43" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="H43" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="I43" s="8" t="s">
+        <v>152</v>
+      </c>
       <c r="J43" s="8"/>
       <c r="K43" s="8"/>
       <c r="L43" s="8"/>
@@ -14081,13 +14326,31 @@
       <c r="AMI43" s="11"/>
     </row>
     <row r="44" spans="1:1024" x14ac:dyDescent="0.25">
-      <c r="C44" s="19"/>
-      <c r="D44" s="14"/>
-      <c r="E44" s="14"/>
-      <c r="F44" s="14"/>
-      <c r="G44" s="14"/>
-      <c r="H44" s="14"/>
-      <c r="I44" s="14"/>
+      <c r="A44" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C44" s="12"/>
+      <c r="D44" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="E44" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="F44" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="G44" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="H44" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="I44" s="14" t="s">
+        <v>153</v>
+      </c>
       <c r="J44" s="14"/>
       <c r="K44" s="21"/>
       <c r="L44" s="21"/>
@@ -14999,13 +15262,33 @@
       <c r="AMI44" s="11"/>
     </row>
     <row r="45" spans="1:1024" x14ac:dyDescent="0.25">
-      <c r="C45" s="8"/>
-      <c r="D45" s="8"/>
-      <c r="E45" s="8"/>
-      <c r="F45" s="8"/>
-      <c r="G45" s="8"/>
-      <c r="H45" s="8"/>
-      <c r="I45" s="40"/>
+      <c r="A45" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="D45" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="E45" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="F45" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="G45" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="H45" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="I45" s="8" t="s">
+        <v>152</v>
+      </c>
       <c r="J45" s="40"/>
       <c r="K45" s="40"/>
       <c r="L45" s="40"/>
@@ -15075,13 +15358,31 @@
       <c r="BX45" s="11"/>
     </row>
     <row r="46" spans="1:1024" x14ac:dyDescent="0.25">
-      <c r="C46" s="19"/>
-      <c r="D46" s="20"/>
-      <c r="E46" s="19"/>
-      <c r="F46" s="14"/>
-      <c r="G46" s="14"/>
-      <c r="H46" s="14"/>
-      <c r="I46" s="20"/>
+      <c r="A46" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C46" s="12"/>
+      <c r="D46" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="E46" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="F46" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="G46" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="H46" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="I46" s="14" t="s">
+        <v>153</v>
+      </c>
       <c r="J46" s="20"/>
       <c r="K46" s="40"/>
       <c r="L46" s="40"/>
